--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H2">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.06743033333333</v>
+        <v>7.510841333333333</v>
       </c>
       <c r="N2">
-        <v>33.202291</v>
+        <v>22.532524</v>
       </c>
       <c r="O2">
-        <v>0.51402483062483</v>
+        <v>0.4209147157736363</v>
       </c>
       <c r="P2">
-        <v>0.5335159299515567</v>
+        <v>0.4389204623206201</v>
       </c>
       <c r="Q2">
-        <v>21.16426547215056</v>
+        <v>12.08798559607333</v>
       </c>
       <c r="R2">
-        <v>190.478389249355</v>
+        <v>108.79187036466</v>
       </c>
       <c r="S2">
-        <v>0.07534425637048177</v>
+        <v>0.05784544889133077</v>
       </c>
       <c r="T2">
-        <v>0.09164376536669169</v>
+        <v>0.06946956967705677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H3">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I3">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J3">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.766387</v>
       </c>
       <c r="O3">
-        <v>0.3679418704040381</v>
+        <v>0.4439636690976673</v>
       </c>
       <c r="P3">
-        <v>0.3818937091387335</v>
+        <v>0.4629553959303794</v>
       </c>
       <c r="Q3">
-        <v>15.14950049024834</v>
+        <v>12.749914023245</v>
       </c>
       <c r="R3">
-        <v>136.345504412235</v>
+        <v>114.749226209205</v>
       </c>
       <c r="S3">
-        <v>0.05393184329141881</v>
+        <v>0.06101301942650048</v>
       </c>
       <c r="T3">
-        <v>0.06559912368221794</v>
+        <v>0.07327366777323288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H4">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I4">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J4">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.130826</v>
+        <v>0.07954833333333333</v>
       </c>
       <c r="N4">
-        <v>0.392478</v>
+        <v>0.238645</v>
       </c>
       <c r="O4">
-        <v>0.006076190268736938</v>
+        <v>0.004457964511467932</v>
       </c>
       <c r="P4">
-        <v>0.006306590866140143</v>
+        <v>0.004648665801066244</v>
       </c>
       <c r="Q4">
-        <v>0.2501787778433334</v>
+        <v>0.1280254854083333</v>
       </c>
       <c r="R4">
-        <v>2.25160900059</v>
+        <v>1.152229368675</v>
       </c>
       <c r="S4">
-        <v>0.0008906301993369657</v>
+        <v>0.0006126489491666196</v>
       </c>
       <c r="T4">
-        <v>0.001083303611295631</v>
+        <v>0.0007357615798204059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H5">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I5">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J5">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3597875</v>
+        <v>2.196044</v>
       </c>
       <c r="N5">
-        <v>4.719575</v>
+        <v>4.392087999999999</v>
       </c>
       <c r="O5">
-        <v>0.1095999101385586</v>
+        <v>0.1230684014031982</v>
       </c>
       <c r="P5">
-        <v>0.07583718982226613</v>
+        <v>0.08555531974637406</v>
       </c>
       <c r="Q5">
-        <v>4.512625569229167</v>
+        <v>3.534324193819999</v>
       </c>
       <c r="R5">
-        <v>27.075753415375</v>
+        <v>21.20594516292</v>
       </c>
       <c r="S5">
-        <v>0.01606483429530736</v>
+        <v>0.01691303880982622</v>
       </c>
       <c r="T5">
-        <v>0.01302680058826374</v>
+        <v>0.01354115781009553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H6">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I6">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J6">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05075266666666667</v>
+        <v>0.1355303333333333</v>
       </c>
       <c r="N6">
-        <v>0.152258</v>
+        <v>0.406591</v>
       </c>
       <c r="O6">
-        <v>0.002357198563836314</v>
+        <v>0.007595249214030288</v>
       </c>
       <c r="P6">
-        <v>0.002446580221303527</v>
+        <v>0.007920156201560164</v>
       </c>
       <c r="Q6">
-        <v>0.09705440905444446</v>
+        <v>0.2181231961183333</v>
       </c>
       <c r="R6">
-        <v>0.8734896814900001</v>
+        <v>1.963108765065</v>
       </c>
       <c r="S6">
-        <v>0.0003455112716907641</v>
+        <v>0.001043799572128496</v>
       </c>
       <c r="T6">
-        <v>0.0004202570366967069</v>
+        <v>0.001253552500579349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J7">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.06743033333333</v>
+        <v>7.510841333333333</v>
       </c>
       <c r="N7">
-        <v>33.202291</v>
+        <v>22.532524</v>
       </c>
       <c r="O7">
-        <v>0.51402483062483</v>
+        <v>0.4209147157736363</v>
       </c>
       <c r="P7">
-        <v>0.5335159299515567</v>
+        <v>0.4389204623206201</v>
       </c>
       <c r="Q7">
-        <v>52.28363288112622</v>
+        <v>35.48195552834488</v>
       </c>
       <c r="R7">
-        <v>470.552695930136</v>
+        <v>319.337599755104</v>
       </c>
       <c r="S7">
-        <v>0.1861284269449038</v>
+        <v>0.1697941835524747</v>
       </c>
       <c r="T7">
-        <v>0.2263942961111093</v>
+        <v>0.2039145531953057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J8">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.766387</v>
       </c>
       <c r="O8">
-        <v>0.3679418704040381</v>
+        <v>0.4439636690976673</v>
       </c>
       <c r="P8">
-        <v>0.3818937091387335</v>
+        <v>0.4629553959303794</v>
       </c>
       <c r="Q8">
         <v>37.42491904606133</v>
@@ -948,10 +948,10 @@
         <v>336.824271414552</v>
       </c>
       <c r="S8">
-        <v>0.1332317768817161</v>
+        <v>0.1790919772972237</v>
       </c>
       <c r="T8">
-        <v>0.1620543129378999</v>
+        <v>0.2150807511032374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J9">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.130826</v>
+        <v>0.07954833333333333</v>
       </c>
       <c r="N9">
-        <v>0.392478</v>
+        <v>0.238645</v>
       </c>
       <c r="O9">
-        <v>0.006076190268736938</v>
+        <v>0.004457964511467932</v>
       </c>
       <c r="P9">
-        <v>0.006306590866140143</v>
+        <v>0.004648665801066244</v>
       </c>
       <c r="Q9">
-        <v>0.6180349321653333</v>
+        <v>0.3757941754355555</v>
       </c>
       <c r="R9">
-        <v>5.562314389488</v>
+        <v>3.38214757892</v>
       </c>
       <c r="S9">
-        <v>0.002200188919206868</v>
+        <v>0.00179831309328153</v>
       </c>
       <c r="T9">
-        <v>0.002676164140272608</v>
+        <v>0.002159686529005527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J10">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.3597875</v>
+        <v>2.196044</v>
       </c>
       <c r="N10">
-        <v>4.719575</v>
+        <v>4.392087999999999</v>
       </c>
       <c r="O10">
-        <v>0.1095999101385586</v>
+        <v>0.1230684014031982</v>
       </c>
       <c r="P10">
-        <v>0.07583718982226613</v>
+        <v>0.08555531974637406</v>
       </c>
       <c r="Q10">
-        <v>11.14786898236667</v>
+        <v>10.37432853234133</v>
       </c>
       <c r="R10">
-        <v>66.88721389419999</v>
+        <v>62.24597119404799</v>
       </c>
       <c r="S10">
-        <v>0.03968613508922444</v>
+        <v>0.04964497071326461</v>
       </c>
       <c r="T10">
-        <v>0.03218105823084885</v>
+        <v>0.03974746291691351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J11">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05075266666666667</v>
+        <v>0.1355303333333333</v>
       </c>
       <c r="N11">
-        <v>0.152258</v>
+        <v>0.406591</v>
       </c>
       <c r="O11">
-        <v>0.002357198563836314</v>
+        <v>0.007595249214030288</v>
       </c>
       <c r="P11">
-        <v>0.002446580221303527</v>
+        <v>0.007920156201560164</v>
       </c>
       <c r="Q11">
-        <v>0.2397606049297778</v>
+        <v>0.6402586669928889</v>
       </c>
       <c r="R11">
-        <v>2.157845444368</v>
+        <v>5.762328002935999</v>
       </c>
       <c r="S11">
-        <v>0.0008535417640239692</v>
+        <v>0.003063872777181297</v>
       </c>
       <c r="T11">
-        <v>0.001038191693979348</v>
+        <v>0.003679562134194666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H12">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I12">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J12">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.06743033333333</v>
+        <v>7.510841333333333</v>
       </c>
       <c r="N12">
-        <v>33.202291</v>
+        <v>22.532524</v>
       </c>
       <c r="O12">
-        <v>0.51402483062483</v>
+        <v>0.4209147157736363</v>
       </c>
       <c r="P12">
-        <v>0.5335159299515567</v>
+        <v>0.4389204623206201</v>
       </c>
       <c r="Q12">
-        <v>3.75993441799989</v>
+        <v>3.577518878845332</v>
       </c>
       <c r="R12">
-        <v>33.83940976199901</v>
+        <v>32.197669909608</v>
       </c>
       <c r="S12">
-        <v>0.01338527260011713</v>
+        <v>0.01711974123556552</v>
       </c>
       <c r="T12">
-        <v>0.01628095943375621</v>
+        <v>0.02055997627145287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H13">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I13">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J13">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.766387</v>
       </c>
       <c r="O13">
-        <v>0.3679418704040381</v>
+        <v>0.4439636690976673</v>
       </c>
       <c r="P13">
-        <v>0.3818937091387335</v>
+        <v>0.4629553959303794</v>
       </c>
       <c r="Q13">
-        <v>2.691382244460334</v>
+        <v>3.773420952506</v>
       </c>
       <c r="R13">
-        <v>24.22244020014301</v>
+        <v>33.960788572554</v>
       </c>
       <c r="S13">
-        <v>0.009581253556113941</v>
+        <v>0.01805720457878169</v>
       </c>
       <c r="T13">
-        <v>0.01165400250946391</v>
+        <v>0.02168582413484465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H14">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I14">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J14">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.130826</v>
+        <v>0.07954833333333333</v>
       </c>
       <c r="N14">
-        <v>0.392478</v>
+        <v>0.238645</v>
       </c>
       <c r="O14">
-        <v>0.006076190268736938</v>
+        <v>0.004457964511467932</v>
       </c>
       <c r="P14">
-        <v>0.006306590866140143</v>
+        <v>0.004648665801066244</v>
       </c>
       <c r="Q14">
-        <v>0.04444547337133334</v>
+        <v>0.03788998484333333</v>
       </c>
       <c r="R14">
-        <v>0.400009260342</v>
+        <v>0.34100986359</v>
       </c>
       <c r="S14">
-        <v>0.0001582247748972735</v>
+        <v>0.0001813174878749284</v>
       </c>
       <c r="T14">
-        <v>0.0001924541410904979</v>
+        <v>0.0002177534810259548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H15">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I15">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J15">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.3597875</v>
+        <v>2.196044</v>
       </c>
       <c r="N15">
-        <v>4.719575</v>
+        <v>4.392087999999999</v>
       </c>
       <c r="O15">
-        <v>0.1095999101385586</v>
+        <v>0.1230684014031982</v>
       </c>
       <c r="P15">
-        <v>0.07583718982226613</v>
+        <v>0.08555531974637406</v>
       </c>
       <c r="Q15">
-        <v>0.8016898207791667</v>
+        <v>1.046006501816</v>
       </c>
       <c r="R15">
-        <v>4.810138924675001</v>
+        <v>6.276039010895999</v>
       </c>
       <c r="S15">
-        <v>0.002853995734738506</v>
+        <v>0.005005525127400229</v>
       </c>
       <c r="T15">
-        <v>0.002314274310756747</v>
+        <v>0.004007594757788027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H16">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I16">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J16">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05075266666666667</v>
+        <v>0.1355303333333333</v>
       </c>
       <c r="N16">
-        <v>0.152258</v>
+        <v>0.406591</v>
       </c>
       <c r="O16">
-        <v>0.002357198563836314</v>
+        <v>0.007595249214030288</v>
       </c>
       <c r="P16">
-        <v>0.002446580221303527</v>
+        <v>0.007920156201560164</v>
       </c>
       <c r="Q16">
-        <v>0.01724218652911111</v>
+        <v>0.06455499519133333</v>
       </c>
       <c r="R16">
-        <v>0.155179678762</v>
+        <v>0.580994956722</v>
       </c>
       <c r="S16">
-        <v>6.138175331180108E-05</v>
+        <v>0.0003089193518094032</v>
       </c>
       <c r="T16">
-        <v>7.466070101803676E-05</v>
+        <v>0.0003709971112062854</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H17">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I17">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J17">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.06743033333333</v>
+        <v>7.510841333333333</v>
       </c>
       <c r="N17">
-        <v>33.202291</v>
+        <v>22.532524</v>
       </c>
       <c r="O17">
-        <v>0.51402483062483</v>
+        <v>0.4209147157736363</v>
       </c>
       <c r="P17">
-        <v>0.5335159299515567</v>
+        <v>0.4389204623206201</v>
       </c>
       <c r="Q17">
-        <v>63.5385768420255</v>
+        <v>34.75433025610933</v>
       </c>
       <c r="R17">
-        <v>381.231461052153</v>
+        <v>208.525981536656</v>
       </c>
       <c r="S17">
-        <v>0.2261957462828346</v>
+        <v>0.1663122294946526</v>
       </c>
       <c r="T17">
-        <v>0.1834196871610876</v>
+        <v>0.1331552638563983</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H18">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I18">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J18">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>23.766387</v>
       </c>
       <c r="O18">
-        <v>0.3679418704040381</v>
+        <v>0.4439636690976673</v>
       </c>
       <c r="P18">
-        <v>0.3818937091387335</v>
+        <v>0.4629553959303794</v>
       </c>
       <c r="Q18">
-        <v>45.4812713573535</v>
+        <v>36.657449595638</v>
       </c>
       <c r="R18">
-        <v>272.887628144121</v>
+        <v>219.944697573828</v>
       </c>
       <c r="S18">
-        <v>0.1619121898519491</v>
+        <v>0.1754193542189383</v>
       </c>
       <c r="T18">
-        <v>0.1312928456801171</v>
+        <v>0.1404467396505724</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H19">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I19">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J19">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.130826</v>
+        <v>0.07954833333333333</v>
       </c>
       <c r="N19">
-        <v>0.392478</v>
+        <v>0.238645</v>
       </c>
       <c r="O19">
-        <v>0.006076190268736938</v>
+        <v>0.004457964511467932</v>
       </c>
       <c r="P19">
-        <v>0.006306590866140143</v>
+        <v>0.004648665801066244</v>
       </c>
       <c r="Q19">
-        <v>0.7510774952789999</v>
+        <v>0.3680877980633333</v>
       </c>
       <c r="R19">
-        <v>4.506464971673999</v>
+        <v>2.20852678838</v>
       </c>
       <c r="S19">
-        <v>0.002673817120318425</v>
+        <v>0.001761435248343744</v>
       </c>
       <c r="T19">
-        <v>0.002168169418719008</v>
+        <v>0.001410265354338918</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H20">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I20">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J20">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.3597875</v>
+        <v>2.196044</v>
       </c>
       <c r="N20">
-        <v>4.719575</v>
+        <v>4.392087999999999</v>
       </c>
       <c r="O20">
-        <v>0.1095999101385586</v>
+        <v>0.1230684014031982</v>
       </c>
       <c r="P20">
-        <v>0.07583718982226613</v>
+        <v>0.08555531974637406</v>
       </c>
       <c r="Q20">
-        <v>13.54763796868125</v>
+        <v>10.161583109768</v>
       </c>
       <c r="R20">
-        <v>54.190551874725</v>
+        <v>40.64633243907199</v>
       </c>
       <c r="S20">
-        <v>0.04822925273121104</v>
+        <v>0.04862690576186957</v>
       </c>
       <c r="T20">
-        <v>0.02607238669263185</v>
+        <v>0.02595491017874964</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H21">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I21">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J21">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05075266666666667</v>
+        <v>0.1355303333333333</v>
       </c>
       <c r="N21">
-        <v>0.152258</v>
+        <v>0.406591</v>
       </c>
       <c r="O21">
-        <v>0.002357198563836314</v>
+        <v>0.007595249214030288</v>
       </c>
       <c r="P21">
-        <v>0.002446580221303527</v>
+        <v>0.007920156201560164</v>
       </c>
       <c r="Q21">
-        <v>0.291373165569</v>
+        <v>0.6271289400673333</v>
       </c>
       <c r="R21">
-        <v>1.748238993414</v>
+        <v>3.762773640404</v>
       </c>
       <c r="S21">
-        <v>0.001037281190551936</v>
+        <v>0.003001042213578039</v>
       </c>
       <c r="T21">
-        <v>0.0008411201120962669</v>
+        <v>0.002402737122864568</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H22">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I22">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J22">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.06743033333333</v>
+        <v>7.510841333333333</v>
       </c>
       <c r="N22">
-        <v>33.202291</v>
+        <v>22.532524</v>
       </c>
       <c r="O22">
-        <v>0.51402483062483</v>
+        <v>0.4209147157736363</v>
       </c>
       <c r="P22">
-        <v>0.5335159299515567</v>
+        <v>0.4389204623206201</v>
       </c>
       <c r="Q22">
-        <v>3.643600968622778</v>
+        <v>2.056919007546667</v>
       </c>
       <c r="R22">
-        <v>32.79240871760501</v>
+        <v>18.51227106792</v>
       </c>
       <c r="S22">
-        <v>0.01297112842649271</v>
+        <v>0.009843112599612803</v>
       </c>
       <c r="T22">
-        <v>0.01577722187891204</v>
+        <v>0.01182109932040647</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H23">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I23">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J23">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>23.766387</v>
       </c>
       <c r="O23">
-        <v>0.3679418704040381</v>
+        <v>0.4439636690976673</v>
       </c>
       <c r="P23">
-        <v>0.3818937091387335</v>
+        <v>0.4629553959303794</v>
       </c>
       <c r="Q23">
-        <v>2.608110105831667</v>
+        <v>2.16955424794</v>
       </c>
       <c r="R23">
-        <v>23.472990952485</v>
+        <v>19.52598823146</v>
       </c>
       <c r="S23">
-        <v>0.009284806822840231</v>
+        <v>0.01038211357622315</v>
       </c>
       <c r="T23">
-        <v>0.01129342432903473</v>
+        <v>0.01246841326849212</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H24">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I24">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J24">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.130826</v>
+        <v>0.07954833333333333</v>
       </c>
       <c r="N24">
-        <v>0.392478</v>
+        <v>0.238645</v>
       </c>
       <c r="O24">
-        <v>0.006076190268736938</v>
+        <v>0.004457964511467932</v>
       </c>
       <c r="P24">
-        <v>0.006306590866140143</v>
+        <v>0.004648665801066244</v>
       </c>
       <c r="Q24">
-        <v>0.04307031767666666</v>
+        <v>0.02178510656666667</v>
       </c>
       <c r="R24">
-        <v>0.38763285909</v>
+        <v>0.1960659591</v>
       </c>
       <c r="S24">
-        <v>0.0001533292549774052</v>
+        <v>0.00010424973280111</v>
       </c>
       <c r="T24">
-        <v>0.0001864995547624</v>
+        <v>0.0001251988568754393</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H25">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I25">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J25">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.3597875</v>
+        <v>2.196044</v>
       </c>
       <c r="N25">
-        <v>4.719575</v>
+        <v>4.392087999999999</v>
       </c>
       <c r="O25">
-        <v>0.1095999101385586</v>
+        <v>0.1230684014031982</v>
       </c>
       <c r="P25">
-        <v>0.07583718982226613</v>
+        <v>0.08555531974637406</v>
       </c>
       <c r="Q25">
-        <v>0.7768853077708333</v>
+        <v>0.6014086098399999</v>
       </c>
       <c r="R25">
-        <v>4.661311846625</v>
+        <v>3.60845165904</v>
       </c>
       <c r="S25">
-        <v>0.002765692288077244</v>
+        <v>0.002877960990837613</v>
       </c>
       <c r="T25">
-        <v>0.002242669999764965</v>
+        <v>0.002304194082827356</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H26">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I26">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J26">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.05075266666666667</v>
+        <v>0.1355303333333333</v>
       </c>
       <c r="N26">
-        <v>0.152258</v>
+        <v>0.406591</v>
       </c>
       <c r="O26">
-        <v>0.002357198563836314</v>
+        <v>0.007595249214030288</v>
       </c>
       <c r="P26">
-        <v>0.002446580221303527</v>
+        <v>0.007920156201560164</v>
       </c>
       <c r="Q26">
-        <v>0.01670870833222222</v>
+        <v>0.03711633708666667</v>
       </c>
       <c r="R26">
-        <v>0.15037837499</v>
+        <v>0.3340470337799999</v>
       </c>
       <c r="S26">
-        <v>5.948258425784314E-05</v>
+        <v>0.0001776152993330516</v>
       </c>
       <c r="T26">
-        <v>7.235067751316888E-05</v>
+        <v>0.0002133073327152957</v>
       </c>
     </row>
   </sheetData>
